--- a/Main.xlsx
+++ b/Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\OSU-Notes\Fall2019\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27419010-C99B-4009-A6B2-51B77D317F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE508F-8BA8-4B28-97F1-4AB4314C9C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Kiwi</t>
   </si>
   <si>
-    <t>Naval Orange</t>
-  </si>
-  <si>
     <t>Green Grape</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Spinach</t>
   </si>
   <si>
-    <t>Fried Chichken</t>
-  </si>
-  <si>
     <t>Frozen Spaghetti &amp; Meatballs</t>
   </si>
   <si>
@@ -199,6 +193,168 @@
   </si>
   <si>
     <t>Veggie Pizza</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;source=images&amp;cd=&amp;ved=2ahUKEwiQuKetgp3mAhUEPH0KHXKcCfIQjRx6BAgBEAQ&amp;url=https%3A%2F%2Fwww.livescience.com%2F45005-banana-nutrition-facts.html&amp;psig=AOvVaw3ZjxpfpCqSyxMq3vpml8q3&amp;ust=1575584113297723</t>
+  </si>
+  <si>
+    <t>Navel Orange</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;source=images&amp;cd=&amp;ved=2ahUKEwjZzKK4gp3mAhVaHDQIHYbHBVkQjRx6BAgBEAQ&amp;url=https%3A%2F%2Fwww.specialtyproduce.com%2Fproduce%2FNavel_Oranges_8521.php&amp;psig=AOvVaw1wdbC3K7jrcNe98cHbzej_&amp;ust=1575584128252543</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;source=images&amp;cd=&amp;ved=2ahUKEwiHiPTHgp3mAhUHIDQIHR1ECcEQjRx6BAgBEAQ&amp;url=https%3A%2F%2Fwww.target.com%2Fp%2Fhoneycrisp-apple-each%2F-%2FA-31167786&amp;psig=AOvVaw28Pw1KL2XI796xB3eCXTvB&amp;ust=1575584164862764</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;source=images&amp;cd=&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwjTuKLhgp3mAhWUCTQIHdL5BzoQjRx6BAgBEAQ&amp;url=https%3A%2F%2Fwww.123rf.com%2Fphoto_40010140_green-grape-isolated-on-the-white-background-.html&amp;psig=AOvVaw0RgkCF-1kmu_Zb1JUWLOI9&amp;ust=1575584216833718</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;source=images&amp;cd=&amp;ved=2ahUKEwiI1bbsgp3mAhXHvJ4KHZy_AEoQjRx6BAgBEAQ&amp;url=https%3A%2F%2Fwww.traderjoes.com%2Ffearless-flyer%2Farticle%2F5049&amp;psig=AOvVaw2Mpnus0DXyiYklQRCmyj0f&amp;ust=1575584245981782</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;source=images&amp;cd=&amp;ved=2ahUKEwjYoZD6gp3mAhXVrJ4KHaeSA8EQjRx6BAgBEAQ&amp;url=https%3A%2F%2Fwww.amazon.com%2FWHOLE-WATERMELON-MINI-PRODUCE-VEGETABLES%2Fdp%2FB00946ATE8&amp;psig=AOvVaw2L2AQiVJMx31e02AoI5fHs&amp;ust=1575584266797627</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2F8e9d5b8b8dcb9208ef3f-01db2a53ae0368d03387780ee86ead55.ssl.cf2.rackcdn.com%2F0000000042250_CF_hyvee_default_large.png&amp;imgrefurl=https%3A%2F%2Fwww.hy-vee.com%2Fgrocery%2FPD2759194%2FHass-Large-Avocado&amp;docid=xAE009pDk2m4-M&amp;tbnid=xb3yEGcMreb8RM%3A&amp;vet=10ahUKEwjj6oqCg53mAhVnITQIHYEWCOUQMwh6KCEwIQ..i&amp;w=487&amp;h=600&amp;bih=566&amp;biw=681&amp;q=Hass%20Avocado(ea)&amp;ved=0ahUKEwjj6oqCg53mAhVnITQIHYEWCOUQMwh6KCEwIQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Funiversityhealthnews.com%2Fmedia%2Fbenefits-of-lime.jpg&amp;imgrefurl=https%3A%2F%2Funiversityhealthnews.com%2Fdaily%2Fnutrition%2F8-amazing-benefits-of-lime%2F&amp;docid=DWKxMn6dyesKJM&amp;tbnid=EtXyEIZ6Oq5dEM%3A&amp;vet=10ahUKEwiDydCUg53mAhWCJzQIHRQmAxMQMwiAASgEMAQ..i&amp;w=720&amp;h=480&amp;bih=566&amp;biw=681&amp;q=lime&amp;ved=0ahUKEwiDydCUg53mAhWCJzQIHRQmAxMQMwiAASgEMAQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=http%3A%2F%2Fwww.specialtyproduce.com%2Fsppics%2F4234.png&amp;imgrefurl=https%3A%2F%2Fwww.specialtyproduce.com%2Fproduce%2FYellow_Peaches_4234.php&amp;docid=APFqkrEJ2gAAaM&amp;tbnid=-3pSbkLrQ86pMM%3A&amp;vet=10ahUKEwjm4e6fg53mAhWvHzQIHYReCkoQMwhzKAEwAQ..i&amp;w=432&amp;h=260&amp;bih=566&amp;biw=681&amp;q=Yellow%20Peaches&amp;ved=0ahUKEwjm4e6fg53mAhWvHzQIHYReCkoQMwhzKAEwAQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.villagem.com%2Fimage%2Fcache%2Fdata%2Fitems%2F4476-800x800.jpg&amp;imgrefurl=https%3A%2F%2Fwww.villagem.com%2Findex.php%3Froute%3Dproduct%2Fproduct%26product_id%3D7&amp;docid=_ziy9RYNfsEkAM&amp;tbnid=qlFRQTRCnc9TnM%3A&amp;vet=10ahUKEwiGj524g53mAhU1Ln0KHVJ7AI8QMwhCKAAwAA..i&amp;w=800&amp;h=800&amp;bih=566&amp;biw=681&amp;q=Pineapple(ea)&amp;ved=0ahUKEwiGj524g53mAhU1Ln0KHVJ7AI8QMwhCKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;source=images&amp;cd=&amp;ved=2ahUKEwiBtP_Fg53mAhXQvZ4KHQXZAL4QjRx6BAgBEAQ&amp;url=https%3A%2F%2Fwww.cookinglight.com%2Fnews%2Fhow-to-make-papaya-smell-taste-better&amp;psig=AOvVaw2k2P8TDl-_ks786VULqHI_&amp;ust=1575584429477771</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fcdn3.volusion.com%2Fkceqm.mleru%2Fv%2Fvspfiles%2Fphotos%2F390-2.jpg%3Fv-cache%3D1570614825&amp;imgrefurl=https%3A%2F%2Fwww.melissas.com%2FGuavas-p%2F390.htm&amp;docid=HycjQJlbCnyuQM&amp;tbnid=ijp2m839gOywsM%3A&amp;vet=10ahUKEwiYg5nTg53mAhUyIjQIHa0NBggQMwh1KAAwAA..i&amp;w=600&amp;h=600&amp;bih=566&amp;biw=681&amp;q=Guava&amp;ved=0ahUKEwiYg5nTg53mAhUyIjQIHa0NBggQMwh1KAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.melissas.com%2Fv%2Fvspfiles%2Fphotos%2F306-2T.jpg&amp;imgrefurl=https%3A%2F%2Fwww.melissas.com%2FGold-Nugget-Tangerines-p%2F306.htm&amp;docid=bUfiomGklrp5-M&amp;tbnid=lpG58xLYKngWwM%3A&amp;vet=10ahUKEwiY6avZg53mAhWkKn0KHYazAEUQMwhMKAAwAA..i&amp;w=400&amp;h=400&amp;bih=566&amp;biw=681&amp;q=Gold%20Mandarins&amp;ved=0ahUKEwiY6avZg53mAhWkKn0KHYazAEUQMwhMKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fdocslaststand.com%2Fwp-content%2Fuploads%2F2019%2F08%2Fcantaloupe.jpg&amp;imgrefurl=https%3A%2F%2Fdocslaststand.com%2Fproduct%2Fcantaloupe-2-00-ea%2F&amp;docid=mgAWOOL-wjyt-M&amp;tbnid=UOiEiKfwxFC2wM%3A&amp;vet=10ahUKEwi4sqjhg53mAhXKHDQIHQCmAUoQMwhGKAIwAg..i&amp;w=225&amp;h=225&amp;bih=566&amp;biw=681&amp;q=Cantaloupe(ea)&amp;ved=0ahUKEwi4sqjhg53mAhXKHDQIHQCmAUoQMwhGKAIwAg&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=http%3A%2F%2Fcdn.shopify.com%2Fs%2Ffiles%2F1%2F0038%2F9405%2F0868%2Fproducts%2FCitrus_OwariSatsumaMandarin_Fruit_1024x1024.jpg%3Fv%3D1550873255&amp;imgrefurl=https%3A%2F%2Fidiggreenacres.com%2Fproducts%2Fsemi-dwarf-satsuma-mandarin-owari&amp;docid=-bAEuSFaGOXFtM&amp;tbnid=mVVSsXgpKZybUM%3A&amp;vet=10ahUKEwiW0sLpg53mAhXWHzQIHTFmDOUQMwh2KAAwAA..i&amp;w=1024&amp;h=1024&amp;bih=566&amp;biw=681&amp;q=Satsuma&amp;ved=0ahUKEwiW0sLpg53mAhXWHzQIHTFmDOUQMwh2KAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=http%3A%2F%2Fwww.specialtyproduce.com%2Fsppics%2F4186.png&amp;imgrefurl=https%3A%2F%2Fwww.specialtyproduce.com%2Fproduce%2FYellow_Nectarines_4186.php&amp;docid=K6WUaFGqVxq4fM&amp;tbnid=slUFmtaqs6TTwM%3A&amp;vet=10ahUKEwjo0ODwg53mAhX3IjQIHfTcB4YQMwhgKAMwAw..i&amp;w=872&amp;h=520&amp;bih=566&amp;biw=681&amp;q=Yellow%20Nectarines&amp;ved=0ahUKEwjo0ODwg53mAhX3IjQIHfTcB4YQMwhgKAMwAw&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fcdn-prod.medicalnewstoday.com%2Fcontent%2Fimages%2Farticles%2F317%2F317776%2Fkiwi-fruit.jpg&amp;imgrefurl=https%3A%2F%2Fwww.medicalnewstoday.com%2Farticles%2F317776.php&amp;docid=uPtPiLY9zRWNWM&amp;tbnid=SWXwjW4WZeazGM%3A&amp;vet=10ahUKEwik-N_4g53mAhVhJjQIHQHNBFwQMwh7KAQwBA..i&amp;w=1100&amp;h=734&amp;bih=566&amp;biw=681&amp;q=Kiwi&amp;ved=0ahUKEwik-N_4g53mAhVhJjQIHQHNBFwQMwh7KAQwBA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.aces.edu%2Fwp-content%2Fuploads%2F2019%2F04%2Fstrawberry-.jpg&amp;imgrefurl=https%3A%2F%2Fwww.aces.edu%2Fblog%2Ftopics%2Ffarming%2Fstrawberries-alabamas-sweet-business%2F&amp;docid=b1bdKnUwbOWqqM&amp;tbnid=NbSke-EyB052sM%3A&amp;vet=10ahUKEwjohr6EhJ3mAhW-GDQIHSkTCEgQMwh6KAEwAQ..i&amp;w=1000&amp;h=671&amp;bih=566&amp;biw=681&amp;q=Strawberry&amp;ved=0ahUKEwjohr6EhJ3mAhW-GDQIHSkTCEgQMwh6KAEwAQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=http%3A%2F%2Fcdn.nexternal.com%2Fgrow%2Fimages%2Fcucumber3.jpg&amp;imgrefurl=https%3A%2F%2Fshop.growdelivers.com%2Forganic-cucumber-ea-p139.aspx&amp;docid=EAlkYJ8LApfo9M&amp;tbnid=zpqsyRJ5r4jeoM%3A&amp;vet=10ahUKEwjZzYKNhJ3mAhW9IDQIHfP_DwsQMwhTKAswCw..i&amp;w=200&amp;h=200&amp;itg=1&amp;bih=566&amp;biw=681&amp;q=Cucumber(ea)&amp;ved=0ahUKEwjZzYKNhJ3mAhW9IDQIHfP_DwsQMwhTKAswCw&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Ftarget.scene7.com%2Fis%2Fimage%2FTarget%2F13728672&amp;imgrefurl=https%3A%2F%2Fbrickseek.com%2Ftarget-inventory-checker%2F%3Fsku%3D224-21-4681&amp;docid=bCnaaWTLM0_gxM&amp;tbnid=yCVUmUNlnQND2M%3A&amp;vet=10ahUKEwjz24uVhJ3mAhXyN30KHecYCpgQMwhCKAAwAA..i&amp;w=400&amp;h=400&amp;bih=566&amp;biw=681&amp;q=Green%20Bell%20Pepper(ea)&amp;ved=0ahUKEwjz24uVhJ3mAhXyN30KHecYCpgQMwhCKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Ffresh.hmart.com%2Fmedia%2Fcatalog%2Fproduct%2Fcache%2F4a29384b44aa82bd9906cfa705b6f349%2Fl%2F-%2Fl-00000000022460_2.jpg&amp;imgrefurl=https%3A%2F%2Ffresh.hmart.com%2F2246&amp;docid=ryuyv-U_ih1ztM&amp;tbnid=eb8T9K9nUryWkM%3A&amp;vet=10ahUKEwj4meGdhJ3mAhURLX0KHU4OCmwQMwhMKAAwAA..i&amp;w=450&amp;h=450&amp;bih=566&amp;biw=681&amp;q=Iceberg%20Lettuce(ea)&amp;ved=0ahUKEwj4meGdhJ3mAhURLX0KHU4OCmwQMwhMKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.jessicagavin.com%2Fwp-content%2Fuploads%2F2019%2F05%2Fhow-to-cook-broccoli-10-1200.jpg&amp;imgrefurl=https%3A%2F%2Fwww.jessicagavin.com%2Fhow-to-cook-broccoli%2F&amp;docid=4iz0n65j42xavM&amp;tbnid=B25PqHHY503fUM%3A&amp;vet=10ahUKEwiO2eajhJ3mAhWzFjQIHbw2CykQMwh_KAgwCA..i&amp;w=1200&amp;h=1200&amp;bih=566&amp;biw=681&amp;q=Broccoli&amp;ved=0ahUKEwiO2eajhJ3mAhWzFjQIHbw2CykQMwh_KAgwCA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fthreeriverscommunityfarm.com%2Fwp-content%2Fuploads%2F2018%2F09%2Froma-tomatoes.jpg&amp;imgrefurl=https%3A%2F%2Fthreeriverscommunityfarm.com%2Fproduct%2Fadd-on-roma-tomato-preserving-share&amp;docid=KJ_AMtQWS3F2yM&amp;tbnid=_v2DYlt6RXdikM%3A&amp;vet=10ahUKEwiWptOuhJ3mAhXFITQIHSEOAjEQMwiCASgFMAU..i&amp;w=940&amp;h=626&amp;bih=566&amp;biw=681&amp;q=Roma%20Tomatoes&amp;ved=0ahUKEwiWptOuhJ3mAhXFITQIHSEOAjEQMwiCASgFMAU&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fcdn-prod.medicalnewstoday.com%2Fcontent%2Fimages%2Farticles%2F270%2F270678%2Fcelery.jpg&amp;imgrefurl=https%3A%2F%2Fwww.medicalnewstoday.com%2Farticles%2F270678.php&amp;docid=c-XZ1ZUq_4HBmM&amp;tbnid=RJaPWu4VVMhwEM%3A&amp;vet=10ahUKEwimoZO1hJ3mAhWhoFsKHYl6AvEQMwh5KAAwAA..i&amp;w=700&amp;h=466&amp;bih=566&amp;biw=681&amp;q=Celery&amp;ved=0ahUKEwimoZO1hJ3mAhWhoFsKHYl6AvEQMwh5KAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fi5.walmartimages.com%2Fasr%2Fea3bc5e9-3b18-4d1b-8438-6d5633e875aa_1.fad6e3cc1e0cc1c9fd5299f9145e3e00.jpeg%3FodnWidth%3D450%26odnHeight%3D450%26odnBg%3Dffffff&amp;imgrefurl=https%3A%2F%2Fwww.walmart.com%2Fip%2FRed-Onions-each%2F51259215&amp;docid=YAJWn3WePyl9KM&amp;tbnid=lElOhmOtlZEt8M%3A&amp;vet=10ahUKEwjBm_m6hJ3mAhXMJzQIHTT2CTIQMwhPKAAwAA..i&amp;w=450&amp;h=450&amp;bih=566&amp;biw=681&amp;q=Red%20Onions(ea)&amp;ved=0ahUKEwjBm_m6hJ3mAhXMJzQIHTT2CTIQMwhPKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fd2fo8907zb6aq8.cloudfront.net%2Fproduct%2Fphoto%2F11677%2FZucchini.jpg&amp;imgrefurl=https%3A%2F%2Fwww.helloenvoy.com%2Fonline-grocery-delivery%2Fstores%2Fwhole-foods%2Fproduce-vegetables%2Forganic-zucchini-ea&amp;docid=Rw1reVybxVi0tM&amp;tbnid=GasYt0n9EthbOM%3A&amp;vet=10ahUKEwiLtPXChJ3mAhUiMX0KHd3NCPoQMwg9KAAwAA..i&amp;w=800&amp;h=506&amp;itg=1&amp;bih=566&amp;biw=681&amp;q=Zucchini(ea)&amp;ved=0ahUKEwiLtPXChJ3mAhUiMX0KHd3NCPoQMwg9KAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fmedia.istockphoto.com%2Fphotos%2Fbatata-or-sweet-potato-picture-id158885472%3Fk%3D6%26m%3D158885472%26s%3D612x612%26w%3D0%26h%3DSBXK7dNTv9tFexuBQrwEeVAInXEwfi53MilvuLHnk-c%3D&amp;imgrefurl=https%3A%2F%2Fwww.istockphoto.com%2Fphotos%2Fsweet-potatoes-silhouettes&amp;docid=3QS6x0FeJjoBpM&amp;tbnid=mL0wKey-bQMoKM%3A&amp;vet=10ahUKEwi2zbrXhJ3mAhUhHzQIHYnTAN4QMwhNKAIwAg..i&amp;w=612&amp;h=408&amp;itg=1&amp;bih=566&amp;biw=681&amp;q=Sweet%20Potatoes%20single&amp;ved=0ahUKEwi2zbrXhJ3mAhUhHzQIHYnTAN4QMwhNKAIwAg&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fimg.webmd.com%2Fdtmcms%2Flive%2Fwebmd%2Fconsumer_assets%2Fsite_images%2Farticles%2Fhealth_tools%2Fall_about_garlic_slideshow%2F1800ss_thinkstock_rf_garlic_in_bowl.jpg%3Fresize%3D650px%3A*&amp;imgrefurl=https%3A%2F%2Fwww.webmd.com%2Ffood-recipes%2Fss%2Fslideshow-all-about-garlic&amp;docid=1MPx9d3S0b4oWM&amp;tbnid=FQIEjMek8wQkLM%3A&amp;vet=10ahUKEwijzKTehJ3mAhW1Kn0KHf49CxIQMwh7KAEwAQ..i&amp;w=650&amp;h=433&amp;bih=566&amp;biw=681&amp;q=Garlic&amp;ved=0ahUKEwijzKTehJ3mAhW1Kn0KHf49CxIQMwh7KAEwAQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fcdn-prod.medicalnewstoday.com%2Fcontent%2Fimages%2Farticles%2F282%2F282844%2Fcauliflower-is-rich-in-nutrients-and-fiber.jpg&amp;imgrefurl=https%3A%2F%2Fwww.medicalnewstoday.com%2Farticles%2F282844.php&amp;docid=-PHzWu1_DlnpjM&amp;tbnid=y2J2ZJUDvS-UKM%3A&amp;vet=10ahUKEwjX2erqhJ3mAhWVHjQIHeLUBOQQMwh-KAUwBQ..i&amp;w=1100&amp;h=734&amp;bih=566&amp;biw=681&amp;q=Cauliflower&amp;ved=0ahUKEwjX2erqhJ3mAhWVHjQIHeLUBOQQMwh-KAUwBQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.thepacker.com%2Fsites%2Fdefault%2Ffiles%2F4_Potatoes_USA_Russets1.jpg&amp;imgrefurl=https%3A%2F%2Fwww.thepacker.com%2Farticle%2Fretail-volume-fresh-potatoes-drops-june-especially-russets&amp;docid=9KDDlGQdhSXXDM&amp;tbnid=w_cJKG8P0-t3OM%3A&amp;vet=10ahUKEwinj4nzhJ3mAhUJIDQIHW1QAY8QMwiHASgLMAs..i&amp;w=8688&amp;h=5792&amp;bih=566&amp;biw=681&amp;q=Potatoes&amp;ved=0ahUKEwinj4nzhJ3mAhUJIDQIHW1QAY8QMwiHASgLMAs&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.almanac.com%2Fsites%2Fdefault%2Ffiles%2Fimage_nodes%2Fcarrots-table_popidar-ss.jpg&amp;imgrefurl=https%3A%2F%2Fwww.almanac.com%2Fplant%2Fcarrots&amp;docid=HFUuys_k2komMM&amp;tbnid=gGShh_xs6zY3uM%3A&amp;vet=10ahUKEwj_voX8hJ3mAhWBMX0KHXd7B_0QMwh-KAUwBQ..i&amp;w=2000&amp;h=1334&amp;bih=566&amp;biw=681&amp;q=Carrots&amp;ved=0ahUKEwj_voX8hJ3mAhWBMX0KHXd7B_0QMwh-KAUwBQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fbakingmischief.com%2Fwp-content%2Fuploads%2F2018%2F06%2Fhow-to-steam-green-beans-in-the-microwave-image-square-500x375.jpg&amp;imgrefurl=https%3A%2F%2Fbakingmischief.com%2F2018%2F08%2F18%2Fhow-to-steam-green-beans-in-the-microwave%2F&amp;docid=jqO918mq2Csj9M&amp;tbnid=7OPb7rkAoQwuAM%3A&amp;vet=10ahUKEwj8gpyHhZ3mAhXyN30KHecYCpgQMwibASgVMBU..i&amp;w=500&amp;h=375&amp;bih=566&amp;biw=681&amp;q=Green%20Beans&amp;ved=0ahUKEwj8gpyHhZ3mAhXyN30KHecYCpgQMwibASgVMBU&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fimg.webmd.com%2Fdtmcms%2Flive%2Fwebmd%2Fconsumer_assets%2Fsite_images%2Farticle_thumbnails%2Frecipes%2Fbrussels_sprouts_sauteed_pecans_shallots_recipe%2F650x350_brussels_sprouts_sauteed_pecans_shallots_recipe.jpg&amp;imgrefurl=https%3A%2F%2Fwww.webmd.com%2Ffood-recipes%2Fbrussels-sprouts-sauteed-pecans-shallots&amp;docid=DyeKR37uYY2bAM&amp;tbnid=W3JoMgxBolqcWM%3A&amp;vet=10ahUKEwiVsYGWhZ3mAhWHGDQIHYMfBEoQMwiAASgHMAc..i&amp;w=650&amp;h=350&amp;bih=566&amp;biw=681&amp;q=Brussels%20Sprouts&amp;ved=0ahUKEwiVsYGWhZ3mAhWHGDQIHYMfBEoQMwiAASgHMAc&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fcdn.shopify.com%2Fs%2Ffiles%2F1%2F1766%2F2121%2Fproducts%2Forganic-green-cabbage2-3-lbs-ea-vegetable_6e4a7e93-8dfc-4e9c-b708-dad6e7e6ea31.jpg%3Fv%3D1547630412&amp;imgrefurl=https%3A%2F%2Fstraightfromthefarm.com%2Fcollections%2Fcabbage&amp;docid=97aDDdczylxo1M&amp;tbnid=1V19IdDITFY14M%3A&amp;vet=10ahUKEwiltYifhZ3mAhVJPn0KHXFFDbsQMwhEKAUwBQ..i&amp;w=500&amp;h=500&amp;itg=1&amp;bih=566&amp;biw=681&amp;q=Cabbage(ea)&amp;ved=0ahUKEwiltYifhZ3mAhVJPn0KHXFFDbsQMwhEKAUwBQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.geaugafamilyfarms.org%2Fwp-content%2Fuploads%2F2018%2F12%2FGUEST_222876d9-f039-4d64-9800-d7c1fa1b8e69-e1543721714151.jpg&amp;imgrefurl=https%3A%2F%2Fwww.geaugafamilyfarms.org%2Fproduct%2Feggplant-ea%2F&amp;docid=4k4m8qu-XI8yjM&amp;tbnid=58-8p9QB3SRTTM%3A&amp;vet=10ahUKEwj1qYeqhZ3mAhUWIzQIHQOyA4sQMwhCKAAwAA..i&amp;w=288&amp;h=288&amp;itg=1&amp;bih=566&amp;biw=681&amp;q=Eggplant(ea)&amp;ved=0ahUKEwj1qYeqhZ3mAhUWIzQIHQOyA4sQMwhCKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fimage.shutterstock.com%2Fimage-photo%2Fsingle-ear-corn-isolated-on-260nw-793795156.jpg&amp;imgrefurl=https%3A%2F%2Fwww.shutterstock.com%2Fsearch%2Fcorn&amp;docid=G0xaXDypzwuzsM&amp;tbnid=wS3KdRusOxYq4M%3A&amp;vet=10ahUKEwjhjJu6hZ3mAhVkNn0KHVUdC-4QMwhQKAEwAQ..i&amp;w=588&amp;h=280&amp;bih=566&amp;biw=681&amp;q=Fresh%20Corn%20single&amp;ved=0ahUKEwjhjJu6hZ3mAhVkNn0KHVUdC-4QMwhQKAEwAQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fi5.walmartimages.com%2Fasr%2F24a5995c-405c-4dcd-b31e-cdba9fb7349b_1.d480691690bd2297fc11b268c95c0396.jpeg%3FodnHeight%3D450%26odnWidth%3D450%26odnBg%3DFFFFFF&amp;imgrefurl=https%3A%2F%2Fwww.walmart.com%2Fip%2FSam-s-Choice-Slow-Cooker-Beef-Stew-44-oz%2F46726477&amp;docid=tIpwOJKAzvuZyM&amp;tbnid=z7VWcJ9toUam7M%3A&amp;vet=10ahUKEwjP8KbHhZ3mAhWFoFsKHVx6AEAQMwhoKAAwAA..i&amp;w=450&amp;h=450&amp;bih=566&amp;biw=681&amp;q=Beef%20Stew%20frozen%20food&amp;ved=0ahUKEwjP8KbHhZ3mAhWFoFsKHVx6AEAQMwhoKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fi5.walmartimages.com%2Fasr%2F7d7c509c-7743-448c-b47e-79ab6c26f0d6_1.2a5ee4d48078eb32eaa00fb6ae85a21b.jpeg%3FodnWidth%3D450%26odnHeight%3D450%26odnBg%3Dffffff&amp;imgrefurl=https%3A%2F%2Fwww.walmart.com%2Fip%2FHershey-s-Milk-Chocolate-Syrup-48-Oz%2F21081234&amp;docid=9SLOBf6O0w4XpM&amp;tbnid=Mq483pQC_jtlSM%3A&amp;vet=10ahUKEwjk1bPRhZ3mAhVWHzQIHXjPBJUQMwhGKAAwAA..i&amp;w=450&amp;h=450&amp;bih=566&amp;biw=681&amp;q=Hershey%27s%20Syrup%20frozen%20food&amp;ved=0ahUKEwjk1bPRhZ3mAhVWHzQIHXjPBJUQMwhGKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.shoperies.com%2Fmedia%2Fcatalog%2Fproduct%2Fcache%2F1%2Fimage%2F32069bb8035f4d9618dd623cc1a6e533%2Fm%2Fi%2Fmixedvegetable.png&amp;imgrefurl=https%3A%2F%2Fwww.shoperies.com%2Findex.php%2Fmixed-vegetables-frozen.html&amp;docid=kedw9VUvhaQwmM&amp;tbnid=MFd736xed6qRfM%3A&amp;vet=10ahUKEwjdy6XdhZ3mAhWSGTQIHYNmC3cQMwhgKA0wDQ..i&amp;w=677&amp;h=556&amp;bih=566&amp;biw=681&amp;q=Mixed%20Vegetables%20frozen%20food&amp;ved=0ahUKEwjdy6XdhZ3mAhWSGTQIHYNmC3cQMwhgKA0wDQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fi5.walmartimages.com%2Fasr%2Fff1496f0-26fb-49c6-b9e2-d192b9204f49_7.07337d2782d3c9274a5cb8917fcd1e08.jpeg&amp;imgrefurl=https%3A%2F%2Fwww.walmart.com%2Fip%2FGreat-Value-Sweet-Peas-32-oz%2F712949094&amp;docid=-xtCBPgQGula5M&amp;tbnid=or102dUEU8RRpM%3A&amp;vet=10ahUKEwic5_XshZ3mAhW1oFsKHXfjCN8QMwhOKAIwAg..i&amp;w=4718&amp;h=4718&amp;bih=566&amp;biw=681&amp;q=Sweet%20Peas%20frozen%20food&amp;ved=0ahUKEwic5_XshZ3mAhW1oFsKHXfjCN8QMwhOKAIwAg&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.meijer.com%2Fcontent%2Fdam%2Fmeijer%2Fproduct%2F0071%2F37%2F3343%2F11%2F0071373343113_1_A1C1_1200.png&amp;imgrefurl=https%3A%2F%2Fwww.meijer.com%2Fshop%2Fen%2Ffrozen%2Ffrozen-vegetables%2Fother-frozen-vegetables%2Fmeijer-frozen-chopped-spinach-16-oz%2Fp%2F71373343113&amp;docid=W9c8owoF-82XvM&amp;tbnid=3SUfbzswk7prwM%3A&amp;vet=10ahUKEwippen2hZ3mAhV_HjQIHYnBA_EQMwhSKAkwCQ..i&amp;w=1200&amp;h=1200&amp;bih=566&amp;biw=681&amp;q=Spinach%20frozen%20food&amp;ved=0ahUKEwippen2hZ3mAhV_HjQIHYnBA_EQMwhSKAkwCQ&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.stouffers.com%2Fsites%2Fdefault%2Ffiles%2F2017-08%2FClassics_For-One_Fried_Chicken.jpg&amp;imgrefurl=https%3A%2F%2Fwww.stouffers.com%2Fen%2Four-dishes%2Fclassics%2Ffor-one%2Ffried-chicken&amp;docid=a6i1Fp6pDIhNnM&amp;tbnid=pB6fg_LJPIf00M%3A&amp;vet=10ahUKEwjo4YeAhp3mAhXHCjQIHTF7DK0QMwiIASgBMAE..i&amp;w=810&amp;h=564&amp;bih=566&amp;biw=681&amp;q=Fried%20Chichken%20frozen%20food&amp;ved=0ahUKEwjo4YeAhp3mAhXHCjQIHTF7DK0QMwiIASgBMAE&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>Fried Chicken</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fimages-na.ssl-images-amazon.com%2Fimages%2FI%2F81n6RwvDEML._SY355_.jpg&amp;imgrefurl=https%3A%2F%2Fwww.amazon.com%2FBanquet-Classic-Spaghetti-Meatballs-Frozen%2Fdp%2FB01MTCA2J5&amp;docid=j8xJBYcFfik-5M&amp;tbnid=KqTGRg1QQySjlM%3A&amp;vet=10ahUKEwiC8_GUhp3mAhUmIDQIHWm7CNEQMwhMKAAwAA..i&amp;w=355&amp;h=355&amp;bih=566&amp;biw=681&amp;q=Frozen%20Spaghetti%20%26%20Meatballs%20frozen%20food&amp;ved=0ahUKEwiC8_GUhp3mAhUmIDQIHWm7CNEQMwhMKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fwww.foresterfarmersmarket.com%2Fwp-content%2Fuploads%2F2018%2F10%2Fwalmart-frozen.jpg&amp;imgrefurl=https%3A%2F%2Fwww.foresterfarmersmarket.com%2Fproducts%2Ffrozen-chicken%2Ffrozen-individually-wrapped-boneless-skinless-chicken-breasts%2F&amp;docid=vgYyj3IebaiSPM&amp;tbnid=s6AVKI8KmVyx3M%3A&amp;vet=10ahUKEwivlfydhp3mAhXhKX0KHWndAl4QMwhhKA4wDg..i&amp;w=1286&amp;h=1369&amp;bih=566&amp;biw=681&amp;q=Chicken%20Breasts%20frozen%20food&amp;ved=0ahUKEwivlfydhp3mAhXhKX0KHWndAl4QMwhhKA4wDg&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Ftarget.scene7.com%2Fis%2Fimage%2FTarget%2FGUEST_3240dfdf-5373-4a39-af86-f799675ad7d3%3Fwid%3D488%26hei%3D488%26fmt%3Dpjpeg&amp;imgrefurl=https%3A%2F%2Fwww.target.com%2Fp%2Fstouffer-s-frozen-meatloaf-in-gravy-33oz%2F-%2FA-13387542&amp;docid=B2DHNIJLm7zYoM&amp;tbnid=3-xSPvA86FuUtM%3A&amp;vet=10ahUKEwijp4Kphp3mAhU4JzQIHQgwBr0QMwhiKAAwAA..i&amp;w=488&amp;h=488&amp;bih=566&amp;biw=681&amp;q=Frozen%20meatloaf%20frozen%20food&amp;ved=0ahUKEwijp4Kphp3mAhU4JzQIHQgwBr0QMwhiKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fi5.walmartimages.com%2Fasr%2F976cd2ed-8ad4-4766-ae2f-16614a545626_5.6950b6d65436a481c71854ce1548e9a3.jpeg&amp;imgrefurl=https%3A%2F%2Fwww.walmart.com%2Fip%2FGreat-Value-Flame-Broiled-Cheese-Burgers-4-5-53-oz-burgers%2F591310760&amp;docid=rn-Uq22webQv0M&amp;tbnid=b7nitEmU3qMbOM%3A&amp;vet=10ahUKEwi36tyyhp3mAhXDOn0KHUjRDxMQMwhSKAMwAw..i&amp;w=3258&amp;h=3258&amp;bih=566&amp;biw=681&amp;q=Frozen%20Burger%20frozen%20food&amp;ved=0ahUKEwi36tyyhp3mAhXDOn0KHUjRDxMQMwhSKAMwAw&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fimages-na.ssl-images-amazon.com%2Fimages%2FI%2F81IB8s4Q7LL._SY355_.jpg&amp;imgrefurl=https%3A%2F%2Fwww.amazon.com%2FMarie-Callenders-Comfort-Scalloped-Potatoes%2Fdp%2FB00OC88WCE&amp;docid=EQGGh3Qx5GgG3M&amp;tbnid=FRqPMsoX472ygM%3A&amp;vet=10ahUKEwi3j7e6hp3mAhW3IjQIHe0WBXkQMwhJKAAwAA..i&amp;w=355&amp;h=355&amp;bih=566&amp;biw=681&amp;q=Cheese%20Sauce%20with%20Ham%20frozen%20food&amp;ved=0ahUKEwi3j7e6hp3mAhW3IjQIHe0WBXkQMwhJKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fmrsmedia.nestleusa.com%2FImages%2FProducts%2F11502_Nimg.png&amp;imgrefurl=https%3A%2F%2Fwww.leancuisine.com%2Fproducts%2Fdetails%2F11502&amp;docid=NnIIpk3mReM30M&amp;tbnid=wITzv-iHsBFqrM%3A&amp;vet=10ahUKEwjhsqrBhp3mAhWlOn0KHb1iARUQMwhlKAAwAA..i&amp;w=720&amp;h=720&amp;bih=566&amp;biw=681&amp;q=Korean%20Beef%20frozen%20food&amp;ved=0ahUKEwjhsqrBhp3mAhWlOn0KHb1iARUQMwhlKAAwAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fmrsmedia.nestleusa.com%2FImages%2FProducts%2F10254_Nimg.png&amp;imgrefurl=https%3A%2F%2Fwww.leancuisine.com%2Fproducts%2Fdetails%2F10254&amp;docid=RuB1jirfFg8OvM&amp;tbnid=Thn3JPwXgT7FFM%3A&amp;vet=10ahUKEwjone_Jhp3mAhVLJzQIHUdiADgQMwiTASgAMAA..i&amp;w=720&amp;h=720&amp;bih=566&amp;biw=681&amp;q=Pepperoni%20Pizza%20frozen%20food&amp;ved=0ahUKEwjone_Jhp3mAhVLJzQIHUdiADgQMwiTASgAMAA&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fi5.walmartimages.com%2Fasr%2F1b4a77d8-bba8-455c-a050-1fe187db1781_6.35926c036ebb3c04474768cfc06300fd.jpeg%3FodnHeight%3D450%26odnWidth%3D450%26odnBg%3DFFFFFF&amp;imgrefurl=https%3A%2F%2Fwww.walmart.com%2Fip%2FGreat-Value-Frozen-Rising-Crust-Three-Meat-Pizza-28-8-oz%2F960448792&amp;docid=fR22orJ-h1r_mM&amp;tbnid=ugmNuTk5IOwvZM%3A&amp;vet=10ahUKEwijppHXhp3mAhU3FzQIHeMGAYAQMwhyKAIwAg..i&amp;w=450&amp;h=450&amp;bih=566&amp;biw=681&amp;q=Three%20meat%20Pizza%20frozen%20food&amp;ved=0ahUKEwijppHXhp3mAhU3FzQIHeMGAYAQMwhyKAIwAg&amp;iact=mrc&amp;uact=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Ftarget.scene7.com%2Fis%2Fimage%2FTarget%2FGUEST_0f846aca-c491-4d30-9630-06440a60d216%3Fwid%3D488%26hei%3D488%26fmt%3Dpjpeg&amp;imgrefurl=https%3A%2F%2Fwww.target.com%2Fp%2Fsweet-earth-natural-veggie-lovers-frozen-pizza-15oz%2F-%2FA-53537654&amp;docid=4duJirWiS8SXNM&amp;tbnid=CX-PxIsPuPe0QM%3A&amp;vet=10ahUKEwjI66Lhhp3mAhXKGTQIHYpAAO0QMwhPKAAwAA..i&amp;w=488&amp;h=488&amp;bih=566&amp;biw=681&amp;q=Veggie%20Pizza%20frozen%20food&amp;ved=0ahUKEwjI66Lhhp3mAhXKGTQIHYpAAO0QMwhPKAAwAA&amp;iact=mrc&amp;uact=8</t>
   </si>
 </sst>
 </file>
@@ -516,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +687,7 @@
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +700,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -558,8 +717,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -572,10 +734,13 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1.3</v>
@@ -586,10 +751,13 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -600,10 +768,13 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1.88</v>
@@ -614,10 +785,13 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0.99</v>
@@ -628,10 +802,13 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>6.48</v>
@@ -642,10 +819,13 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1.74</v>
@@ -656,8 +836,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -670,10 +853,13 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1.94</v>
@@ -684,10 +870,13 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1.48</v>
@@ -698,10 +887,13 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2.64</v>
@@ -712,8 +904,11 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -726,10 +921,13 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3.69</v>
@@ -740,10 +938,13 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1.41</v>
@@ -754,8 +955,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -768,8 +972,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -782,10 +989,13 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>2.4900000000000002</v>
@@ -796,10 +1006,13 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0.68</v>
@@ -810,10 +1023,13 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0.72</v>
@@ -824,10 +1040,13 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>1.48</v>
@@ -838,10 +1057,13 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1.48</v>
@@ -852,10 +1074,13 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1.18</v>
@@ -866,10 +1091,13 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1.22</v>
@@ -880,10 +1108,13 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0.54</v>
@@ -894,10 +1125,13 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0.76</v>
@@ -908,10 +1142,13 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0.54</v>
@@ -922,10 +1159,13 @@
       <c r="D28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>3.98</v>
@@ -936,10 +1176,13 @@
       <c r="D29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>2.44</v>
@@ -950,10 +1193,13 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0.79</v>
@@ -964,10 +1210,13 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0.77</v>
@@ -978,10 +1227,13 @@
       <c r="D32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>1.68</v>
@@ -992,10 +1244,13 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>2.2400000000000002</v>
@@ -1006,10 +1261,13 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>2.52</v>
@@ -1020,10 +1278,13 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1.85</v>
@@ -1034,10 +1295,13 @@
       <c r="D36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.5</v>
@@ -1048,10 +1312,13 @@
       <c r="D37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>9.99</v>
@@ -1060,12 +1327,15 @@
         <v>9.85</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>3.98</v>
@@ -1074,12 +1344,15 @@
         <v>3.29</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1088,12 +1361,15 @@
         <v>1.5</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>1.78</v>
@@ -1102,12 +1378,15 @@
         <v>1.5</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1116,12 +1395,15 @@
         <v>1.79</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>1.48</v>
@@ -1130,12 +1412,15 @@
         <v>1.39</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>2.52</v>
@@ -1144,12 +1429,15 @@
         <v>2.79</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>2.1800000000000002</v>
@@ -1158,12 +1446,15 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>1.88</v>
@@ -1172,12 +1463,15 @@
         <v>1.39</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>1.5</v>
@@ -1186,12 +1480,15 @@
         <v>1.79</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>4.92</v>
@@ -1200,12 +1497,15 @@
         <v>6.49</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>3.48</v>
@@ -1214,12 +1514,15 @@
         <v>2.79</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>3.52</v>
@@ -1228,12 +1531,15 @@
         <v>2.99</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>2.78</v>
@@ -1242,12 +1548,15 @@
         <v>2.89</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>6.46</v>
@@ -1256,7 +1565,10 @@
         <v>5.99</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
